--- a/screener/total-assets.xlsx
+++ b/screener/total-assets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://binusianorg-my.sharepoint.com/personal/dhiya_muharram_binus_ac_id/Documents/5. Materi Semester 5/99, GithubPages/refinitif/screener/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{F81446B7-EF98-48E8-A8F5-5AF43C94F35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE841149-D4B7-4363-90F4-13AE90B1449C}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{F81446B7-EF98-48E8-A8F5-5AF43C94F35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29F1F5B3-A00D-49FC-B2AC-5A1D9327DA84}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{4319E1FA-7614-4B01-8320-941EF46ADC0D}"/>
   </bookViews>
@@ -323,9 +323,6 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -334,6 +331,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -672,1006 +672,1007 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9D6E29-D730-4C41-B24B-06446A239085}">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
     <col min="8" max="8" width="22.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="1">
         <v>2019</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="1">
         <v>2020</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="1">
         <v>2021</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="1">
         <v>2022</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="1">
         <v>2023</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="1">
         <v>2024</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>4366315260012</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>4676206827347</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>5978673938137</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>6321024480878</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>6643815019188</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>6821060839225</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>36515833214549</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>38093888626551</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>39900337834619</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>39986417216654</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>40492030620079</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>35042781072073</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>27067922912000</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>28015492262000</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>16866522655000</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>13898775065000</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>12440642239000</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>13128920167000</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>30194907730000</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>31729512995000</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>32916154000000</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>33637271000000</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>42851329000000</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>44522645000000</v>
       </c>
-      <c r="L5" s="6"/>
+      <c r="L5" s="5"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>845605208000000</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>891337425000000</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>964837692000000</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>1029836868000000</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>1086663986000000</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>1129805637000000</v>
       </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>1416758840000000</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>1610065344000000</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>1678097733999999.8</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>1865639010000000.3</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>1965007030000000</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>1992983447000000</v>
       </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>311776828000000</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>361208406000000</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>371868311000000</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>402148312000000</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>438749736000000</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>469614502000000</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>1318246335000000.3</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>1541964566999999.8</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>1725611128000000</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>1992544687000000</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>2174219449000000</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>2427223262000000</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>43123488000000</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>239581524000000</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>265289081000000</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>305727438000000</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>353624124000000</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>408613432000000</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>6805037000000</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>7562822000000</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>7234857000000</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>8836089000000</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>9601482000000</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>10628300000000</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>61844779743120</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>151491324914280</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>102496621380000</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>97047945888135</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>103572095590935</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>106493514400690</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>10498699557040</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>7312805435520</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>5663177615250</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>6080602821150</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>6928074880685</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>6832299966270</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>1383935194386</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>1713334658849</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>1976879396142</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>1481412095840</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>759828977658</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>618159340037</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>1264868846000</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>1825052707000</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>1962877696000</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>2191828374000</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>1788314387000</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>1850738338000</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>1279304590000</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>1408289984000</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>1427875007000</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>1488208066000</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>1522134648000</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <v>1649981015000</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>99679570000000</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>104086646000000</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>101242884000000</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>91139182000000</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <v>129311989000000</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <v>140726439000000</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>18352877132000</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>17562816674000</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>17229101040000</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>19797322545000</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <v>16630699447000</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <v>14967031490000</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>45637953560000</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>48948339960000</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>53774883000000</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>49223285210000</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <v>43863264655000</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <v>46574371440000</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>20091171218000</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>25285211943000</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>57728318286000</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>56071558764000</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <v>57278715000000</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <v>58139702000000</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>2096719180000</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>1915989375000</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>1838539299000</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>1806280965000</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <v>1768708718000</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <v>1430039358000</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>102347138605280</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>105777168985800</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>107031021853500</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>111987995619830</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <v>101595276230255</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <v>103232631155700</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>35719222280000</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>35821178640000</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>34164104250000</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>38525522970000</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <v>45632950695000</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <v>48228198180000</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>7760863409420</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>6767233104600</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>7029648280015</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <v>7588440332245</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="3">
         <v>7164990158071</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="3">
         <v>7648848575168</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>17908132088285</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>18496821048659</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>21086427083575</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <v>21812999448669</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="3">
         <v>19693388488647</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="3">
         <v>18242135520682</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>26098052000000</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>24056755000000</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <v>36123703000000</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="3">
         <v>45359207000000</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="3">
         <v>38765189000000</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="3">
         <v>41785576000000</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>56130526187076</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>53408823346707</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <v>55573843735084</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="3">
         <v>57612383140536</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="3">
         <v>56525042574560</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="3">
         <v>56589716015594</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>5571270204000</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>5737175560000</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <v>5271953697000</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="3">
         <v>5242724933000</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="3">
         <v>4856730638000</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="3">
         <v>4907686845000</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>19567498000000</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>20738125000000</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <v>21491023000000</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="3">
         <v>21378510000000</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="3">
         <v>22206739000000</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="3">
         <v>21046352000000</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>79807067000000</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <v>78006244000000</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="3">
         <v>81766327000000</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="3">
         <v>82960012000000</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="3">
         <v>81820529000000</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="3">
         <v>76993082000000</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>20361278000000</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <v>14517700000000</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="3">
         <v>14690989000000</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="3">
         <v>13066976000000</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="3">
         <v>12853277000000</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="3">
         <v>12799576000000</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>221208000000000</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="3">
         <v>246943000000000</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="3">
         <v>277184000000000</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="3">
         <v>275192000000000</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="3">
         <v>287042000000000</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="3">
         <v>299675000000000</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>20734506631000</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="3">
         <v>19460094655000</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="3">
         <v>20188056012000</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="3">
         <v>21581305468000</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="3">
         <v>25137942615000</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="3">
         <v>26350070532000</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <v>6197314112122</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="3">
         <v>6081882876649</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="3">
         <v>5973999226008</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="3">
         <v>5424428338683</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="3">
         <v>5561533835483</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="3">
         <v>5727273558260</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>62110847154000</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="3">
         <v>68109185213000</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="3">
         <v>69385794346000</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="3">
         <v>75069604222000</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="3">
         <v>65981235888000</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="3">
         <v>63556342748000</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>16149121684330</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="3">
         <v>8589025755237</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="3">
         <v>6882077282159</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="3">
         <v>5963657951878</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="3">
         <v>4473145720502</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="3">
         <v>3618630656515</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>122589259350571</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="3">
         <v>100767648407325</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="3">
         <v>103601611883340</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="3">
         <v>98232316628846</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="3">
         <v>95595897457967</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="3">
         <v>77159736864177</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <v>10337895087207</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="3">
         <v>8509017299594</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="3">
         <v>9082511044439</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="3">
         <v>9447528704261</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="3">
         <v>7631670664176</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="3">
         <v>7194688328878</v>
       </c>
     </row>
